--- a/medicine/Mort/Timoclea/Timoclea.xlsx
+++ b/medicine/Mort/Timoclea/Timoclea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Timoclea est une peinture d'Elisabetta Sirani de 1659, adaptée d'une gravure de Matthäus Merian. Elle représente Timoclée poussant dans un puits le capitaine thrace qui l’a violée.
-Elle se trouve au musée de Capodimonte, à Naples[1].
+Elle se trouve au musée de Capodimonte, à Naples.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Peint en 1659, Timoclea fait partie d'un grand nombre de tableaux dans lesquels la peintre Elisabetta Sirani, à l'instar de la grande Artemisia Gentileschi, représente des personnages féminins forts et fiers, principalement tirés de l'histoire grecque et romaine et de la Bible. Comme dans beaucoup d'autres de ses œuvres, Sirani représente souvent des personnages féminins historiques racontés par Plutarque, son écrivain préféré[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Peint en 1659, Timoclea fait partie d'un grand nombre de tableaux dans lesquels la peintre Elisabetta Sirani, à l'instar de la grande Artemisia Gentileschi, représente des personnages féminins forts et fiers, principalement tirés de l'histoire grecque et romaine et de la Bible. Comme dans beaucoup d'autres de ses œuvres, Sirani représente souvent des personnages féminins historiques racontés par Plutarque, son écrivain préféré.
 </t>
         </is>
       </c>
